--- a/public/excelTemplate/履约值利润指标导入模板.xlsx
+++ b/public/excelTemplate/履约值利润指标导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yosun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\code\h5\boss\public\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,8 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -273,15 +274,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,11 +287,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,909 +582,923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1111</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>143</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>50.5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>30</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>200</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>200</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>200</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>200</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>200</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>200</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>200</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>200</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="7">
         <v>176.5</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1211</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>290</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
-        <v>100</v>
-      </c>
-      <c r="F4" s="6">
-        <v>100</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100</v>
+      </c>
+      <c r="G4" s="7">
         <v>120</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>130</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>130</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>130</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>130</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <v>120</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>120</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1212</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>500</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>500</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>700</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>700</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>700</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>700</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>700</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>700</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>700</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>700</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>700</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>1234</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>30</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>20</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>40</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>50</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>50</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>60</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>60</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>60</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <v>70</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>80</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1231</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>117.9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>69</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>200</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>250</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>280</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>280</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>280</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>290</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>290</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7">
         <v>310</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>310</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>1224</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>160</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>200</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>260</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>200</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>300</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>300</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>300</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>240</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>240</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="7">
         <v>300</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <v>200</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>1233</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>19.429300000000001</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>116.956981</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>230</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>270</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>324</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>380</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>420</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>380</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>360</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>360</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>1334</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>120</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>105</v>
       </c>
-      <c r="G10" s="6">
-        <v>100</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
+      <c r="H10" s="7">
         <v>110</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>105</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>130</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <v>105</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="7">
         <v>105</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <v>120</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>1534</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>5.2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>45</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>70</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>80</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>80</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>80</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>80</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>80</v>
       </c>
-      <c r="L11" s="6">
-        <v>100</v>
-      </c>
-      <c r="M11" s="6">
-        <v>100</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="L11" s="7">
+        <v>100</v>
+      </c>
+      <c r="M11" s="7">
+        <v>100</v>
+      </c>
+      <c r="N11" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>1934</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>7.6048</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>200</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>380</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>380</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>360</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>360</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="7">
         <v>360</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>360</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <v>360</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="7">
         <v>360</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>1284</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>700</v>
       </c>
-      <c r="D13" s="6">
-        <v>100</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="7">
+        <v>100</v>
+      </c>
+      <c r="E13" s="7">
         <v>600</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>600</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>1000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>1000</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>1000</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>800</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>800</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>800</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>1000</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>1600</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>1231</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>130</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>50</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>120</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>130</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>140</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>140</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>155</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="7">
         <v>155</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>140</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>130</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <v>110</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>1232</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6">
-        <v>100</v>
-      </c>
-      <c r="D15" s="6">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6">
-        <v>100</v>
-      </c>
-      <c r="G15" s="6">
-        <v>100</v>
-      </c>
-      <c r="H15" s="6">
-        <v>100</v>
-      </c>
-      <c r="I15" s="6">
-        <v>100</v>
-      </c>
-      <c r="J15" s="6">
-        <v>100</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
-        <v>100</v>
-      </c>
-      <c r="M15" s="6">
-        <v>100</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="C15" s="7">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7">
+        <v>100</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7">
+        <v>100</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100</v>
+      </c>
+      <c r="H15" s="7">
+        <v>100</v>
+      </c>
+      <c r="I15" s="7">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7">
+        <v>100</v>
+      </c>
+      <c r="M15" s="7">
+        <v>100</v>
+      </c>
+      <c r="N15" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>1234</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <v>432.66390000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>432.71080000000001</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>432</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>432</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>432</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="7">
         <v>531</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <v>531</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="7">
         <v>628</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7">
         <v>628</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="7">
         <v>740</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="7">
         <v>740</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="7">
         <v>741.63</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>1234</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>172</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>180</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>226</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>226</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="7">
         <v>226</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>180</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="7">
         <v>180</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>180</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="7">
         <v>180</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="7">
         <v>170</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>1236</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>40</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>30</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>40</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>40</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>40</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="7">
         <v>60</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="7">
         <v>60</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>45</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="7">
         <v>60</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>65</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>1237</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>320</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>120</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <v>350</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>300</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>350</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="7">
         <v>400</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="7">
         <v>400</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="7">
         <v>300</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <v>300</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="7">
         <v>350</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <v>150</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="7">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>1238</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>128</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>25</v>
       </c>
-      <c r="E20" s="6">
-        <v>100</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
         <v>120</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>125</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="7">
         <v>125</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="7">
         <v>120</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="7">
         <v>123</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="7">
         <v>120</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="7">
         <v>120</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="7">
         <v>120</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>1239</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>80</v>
       </c>
-      <c r="D21" s="6">
-        <v>100</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="7">
+        <v>100</v>
+      </c>
+      <c r="E21" s="7">
         <v>130</v>
       </c>
-      <c r="F21" s="6">
-        <v>100</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="7">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7">
         <v>150</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="7">
         <v>150</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="7">
         <v>150</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="7">
         <v>120</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <v>120</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
         <v>150</v>
       </c>
-      <c r="M21" s="6">
-        <v>100</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="M21" s="7">
+        <v>100</v>
+      </c>
+      <c r="N21" s="7">
         <v>150</v>
       </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1488,5 +1506,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>